--- a/data/trans_bre/P1408-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1408-Provincia-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.156870252536181</v>
+        <v>-5.902627966558295</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.635307454822241</v>
+        <v>-1.600332882112885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.597564862099223</v>
+        <v>-4.64935179365035</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.769383790699206</v>
+        <v>-1.95619199873255</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
@@ -679,7 +679,7 @@
         <v>-1</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.7494186473260334</v>
+        <v>-0.7843698487204447</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.160035561812449</v>
+        <v>-1.219745850642978</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.430408577508562</v>
+        <v>2.638250621675616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1921434932348876</v>
+        <v>-0.1283918422141938</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9779685567433009</v>
+        <v>0.9332820286725743</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.06608107240098457</v>
+        <v>-0.1007904744640999</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>1.278159855956621</v>
+        <v>0.8810109028853789</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.696534305364143</v>
+        <v>1.559567905363318</v>
       </c>
     </row>
     <row r="7">
@@ -733,7 +733,7 @@
         <v>-1.16638350455931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.07588371526490167</v>
+        <v>-0.07588371526490133</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2439695093119327</v>
@@ -745,7 +745,7 @@
         <v>-0.4413087636277907</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.03823744485057493</v>
+        <v>-0.03823744485057476</v>
       </c>
     </row>
     <row r="8">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.807059262597931</v>
+        <v>-4.030197823564031</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.080647528161537</v>
+        <v>-4.192408031642665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.998794863667102</v>
+        <v>-3.145723137257758</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.598453460908193</v>
+        <v>-1.630479200777595</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5866069026350391</v>
+        <v>-0.610334833262458</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8891381603537178</v>
+        <v>-0.8739030297208012</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8331597519156312</v>
+        <v>-0.8157176622941104</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5676082726728143</v>
+        <v>-0.5754534486438236</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.593954524911504</v>
+        <v>1.33220437098356</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.3520170121135431</v>
+        <v>-0.3630471026945677</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4965375761858854</v>
+        <v>0.4485285410779332</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.431444079726382</v>
+        <v>1.399941327609361</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4869569885020056</v>
+        <v>0.4012165329081978</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.06740234477353849</v>
+        <v>0.05835623038978176</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4802551898202741</v>
+        <v>0.363619771986255</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.320841627025898</v>
+        <v>1.295040990416373</v>
       </c>
     </row>
     <row r="10">
@@ -833,7 +833,7 @@
         <v>-0.3359350661458481</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.003293617990537956</v>
+        <v>-0.00329361799053865</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.7751885871588067</v>
@@ -845,7 +845,7 @@
         <v>-0.2485796214798599</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.001024412565877511</v>
+        <v>-0.001024412565877727</v>
       </c>
     </row>
     <row r="11">
@@ -856,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.749311693969088</v>
+        <v>-5.848931878102561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.948943418527687</v>
+        <v>-2.979007995794082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.86750931485189</v>
+        <v>-1.91029505477657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.073045858544782</v>
+        <v>-2.14384108528927</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.95129523126172</v>
+        <v>-0.9452830891714185</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.835189085377286</v>
+        <v>-0.8505453903336089</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4873469233029322</v>
+        <v>-0.4797114515773504</v>
       </c>
     </row>
     <row r="12">
@@ -888,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.9960325266669354</v>
+        <v>-0.9870718104484055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.423529087017275</v>
+        <v>1.268558857785949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.446794213629699</v>
+        <v>1.238841203240658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.865041696192477</v>
+        <v>1.91183363616715</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1676833654079239</v>
+        <v>-0.2456903787105406</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.614921881810266</v>
+        <v>1.365318209272191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.947296431500964</v>
+        <v>2.257915996982488</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8847487199912553</v>
+        <v>0.904989606249587</v>
       </c>
     </row>
     <row r="13">
@@ -933,7 +933,7 @@
         <v>-1.229131153076536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.5314465764060965</v>
+        <v>-0.5314465764060958</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.603311218205196</v>
@@ -945,7 +945,7 @@
         <v>-0.4757411807226454</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1382443086867511</v>
+        <v>-0.1382443086867509</v>
       </c>
     </row>
     <row r="14">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.329649883109955</v>
+        <v>-5.168590143670617</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.104502434995199</v>
+        <v>-2.773305438985696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.380232813339318</v>
+        <v>-3.304709608365217</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.180152071326296</v>
+        <v>-3.294501765240911</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8679786527411743</v>
+        <v>-0.8584336284064582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6855196174490945</v>
+        <v>-0.6739612727828989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8468835541621343</v>
+        <v>-0.8710819886939744</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.587839018733863</v>
+        <v>-0.6183284419357353</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.1366042145900381</v>
+        <v>-0.03145279309961506</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.873014976807758</v>
+        <v>2.030454296734336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5945459723068073</v>
+        <v>0.9057624734038029</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.308948201834066</v>
+        <v>2.569903590843832</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05010316792006062</v>
+        <v>0.09750135434694571</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.24567378178274</v>
+        <v>1.528034979562983</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8664947724772959</v>
+        <v>0.7819526376239216</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.145417225880661</v>
+        <v>1.138537421891325</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>-1.27928161845095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.2583895260582874</v>
+        <v>-0.2583895260582876</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0083953010519748</v>
@@ -1045,7 +1045,7 @@
         <v>-0.5823755223752123</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1432424518804996</v>
+        <v>-0.1432424518804997</v>
       </c>
     </row>
     <row r="17">
@@ -1056,26 +1056,24 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.639500591329647</v>
+        <v>-3.562518310157192</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.541161835471184</v>
+        <v>-3.658600804664729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.833782440677049</v>
+        <v>-3.919967108984929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.131640568159779</v>
+        <v>-2.333839654567334</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6536572971897496</v>
+        <v>-0.6675748820403624</v>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
-      <c r="I17" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.7231390966484131</v>
+        <v>-0.7328498261571169</v>
       </c>
     </row>
     <row r="18">
@@ -1086,26 +1084,24 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.261020378549548</v>
+        <v>4.410360971628388</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3737780403625598</v>
+        <v>0.3967089639280765</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.928325765622137</v>
+        <v>0.6203482584005936</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.284882216530916</v>
+        <v>1.294775546176014</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.971814816471965</v>
+        <v>2.228340055472818</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
-      <c r="I18" s="6" t="n">
-        <v>2.612874878665105</v>
-      </c>
+      <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1.767458005811474</v>
+        <v>2.005141426749825</v>
       </c>
     </row>
     <row r="19">
@@ -1152,28 +1148,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.921453850016313</v>
+        <v>-3.153009935499802</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.848469955028756</v>
+        <v>-7.031965583995681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.8209271539946</v>
+        <v>-1.798989577984538</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.501252888198973</v>
+        <v>-3.569614716910475</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.9530954365153206</v>
+        <v>-0.9549289340728792</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8802770632217739</v>
+        <v>-0.8735676776406561</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5813794443007725</v>
+        <v>-0.6024530187886633</v>
       </c>
     </row>
     <row r="21">
@@ -1184,28 +1180,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.271982337455158</v>
+        <v>1.364143039827496</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-1.147276654363268</v>
+        <v>-1.131836482128048</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.44625550313833</v>
+        <v>2.477760553946589</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.265423010880784</v>
+        <v>1.482468763790622</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.224269137911297</v>
+        <v>1.958286049261351</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1013580975704237</v>
+        <v>-0.2035194708181751</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.142432265959625</v>
+        <v>5.305639062048471</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4254977996194392</v>
+        <v>0.4465067405944521</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1225,7 @@
         <v>-0.2524507026069295</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6449766282072885</v>
+        <v>0.6449766282072892</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2463217462711654</v>
@@ -1241,7 +1237,7 @@
         <v>-0.1452020767403082</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2491593067127353</v>
+        <v>0.2491593067127356</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1248,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.430682963246231</v>
+        <v>-3.178640786491159</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.083868890495213</v>
+        <v>-1.258805993773652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.745949160446466</v>
+        <v>-1.955234003676025</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.102043425548463</v>
+        <v>-0.8976008966231371</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5905281859538949</v>
+        <v>-0.5618440584241385</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.6799223402476988</v>
+        <v>-0.7387814836159923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.688582641423794</v>
+        <v>-0.7187013527962327</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3164613544468999</v>
+        <v>-0.2852238929823279</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1280,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7061843466808847</v>
+        <v>1.039186707362441</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.158736947160668</v>
+        <v>1.055246612212088</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.147301181501245</v>
+        <v>1.102118623826138</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.451126458392412</v>
+        <v>2.344405048070243</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2195848954657057</v>
+        <v>0.3563808070650266</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.229677297704591</v>
+        <v>2.145434738633172</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.294972264179522</v>
+        <v>1.244250150343922</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.325858885728499</v>
+        <v>1.501392074599109</v>
       </c>
     </row>
     <row r="25">
@@ -1329,7 +1325,7 @@
         <v>-0.2673066495653936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.2314329458056094</v>
+        <v>0.2314329458056097</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.152223086951167</v>
@@ -1341,7 +1337,7 @@
         <v>-0.1718186321484994</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1174387140230004</v>
+        <v>0.1174387140230005</v>
       </c>
     </row>
     <row r="26">
@@ -1352,28 +1348,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-2.668432430151248</v>
+        <v>-2.734516779229876</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.335612683231716</v>
+        <v>-2.277993707816598</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.48553310487409</v>
+        <v>-1.45471636729425</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.017006891326279</v>
+        <v>-1.044878849702202</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4945640863701791</v>
+        <v>-0.5064244536649067</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8838500983449814</v>
+        <v>-0.9102988314917202</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6952436797756081</v>
+        <v>-0.6933282798547843</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.403859507042246</v>
+        <v>-0.404637615393047</v>
       </c>
     </row>
     <row r="27">
@@ -1384,28 +1380,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.338379678257688</v>
+        <v>1.287663720896168</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08881870664464842</v>
+        <v>0.08928140422311988</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9316220138342516</v>
+        <v>0.9398632240874258</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.407868925514425</v>
+        <v>1.388675636627951</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4086383744078229</v>
+        <v>0.4552381392403316</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.494801345011007</v>
+        <v>0.3030969816510264</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9211715888219155</v>
+        <v>1.073846550037069</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.096189559115342</v>
+        <v>1.03194309126248</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1425,7 @@
         <v>-0.6743451074183514</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.02077897198490553</v>
+        <v>0.02077897198490587</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.3474918286776134</v>
@@ -1441,7 +1437,7 @@
         <v>-0.3443076767982053</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.008149999135028159</v>
+        <v>0.008149999135028296</v>
       </c>
     </row>
     <row r="29">
@@ -1452,28 +1448,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.332061064233431</v>
+        <v>-2.388119986784193</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.592964535002464</v>
+        <v>-1.557945587064732</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.331846856493736</v>
+        <v>-1.258089709567507</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7233743047967225</v>
+        <v>-0.662794141035731</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.4984370533910211</v>
+        <v>-0.5143196400702617</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.6213558791546866</v>
+        <v>-0.6226144186108075</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.5620873731263245</v>
+        <v>-0.558892980418026</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.2443532729268401</v>
+        <v>-0.2274145562716402</v>
       </c>
     </row>
     <row r="30">
@@ -1484,28 +1480,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.5692304976613274</v>
+        <v>-0.5175995563381459</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.2240427879206857</v>
+        <v>-0.2867292425548474</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.09365247252870891</v>
+        <v>-0.05150044193818576</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6425705663170176</v>
+        <v>0.7297837935927315</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1401979734886749</v>
+        <v>-0.1426980646189694</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.1208792719272601</v>
+        <v>-0.1518774907862</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.0347620454758054</v>
+        <v>-0.01965762833134545</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.2845391934181404</v>
+        <v>0.3205336913932772</v>
       </c>
     </row>
     <row r="31">
